--- a/data/pca/factorExposure/factorExposure_2013-03-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-06.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002902566748834666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00201420426943107</v>
+      </c>
+      <c r="C2">
+        <v>-0.03260464812639193</v>
+      </c>
+      <c r="D2">
+        <v>0.002126819032396885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001781834289351664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006116660105750423</v>
+      </c>
+      <c r="C4">
+        <v>-0.08460144663269627</v>
+      </c>
+      <c r="D4">
+        <v>0.08034155623896677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0006574931776474312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01362418242727896</v>
+      </c>
+      <c r="C6">
+        <v>-0.1124590605182019</v>
+      </c>
+      <c r="D6">
+        <v>0.03185964191825065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001521229908909381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004792581172563526</v>
+      </c>
+      <c r="C7">
+        <v>-0.05687560354246892</v>
+      </c>
+      <c r="D7">
+        <v>0.03361255095766111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003758893223091162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005640697824271335</v>
+      </c>
+      <c r="C8">
+        <v>-0.03879608612289177</v>
+      </c>
+      <c r="D8">
+        <v>0.04350568162156943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004077706968072962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004197217783381424</v>
+      </c>
+      <c r="C9">
+        <v>-0.07056058693399812</v>
+      </c>
+      <c r="D9">
+        <v>0.07127577743689734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004363959971387393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005375429007420667</v>
+      </c>
+      <c r="C10">
+        <v>-0.06048606512155015</v>
+      </c>
+      <c r="D10">
+        <v>-0.2018878033666764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.00256962514194122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005373438530426116</v>
+      </c>
+      <c r="C11">
+        <v>-0.08045767692170785</v>
+      </c>
+      <c r="D11">
+        <v>0.06082201270062797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0003836344561812748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004038481176570206</v>
+      </c>
+      <c r="C12">
+        <v>-0.06475231862537897</v>
+      </c>
+      <c r="D12">
+        <v>0.04492957412460085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003349635207541315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008667011677079417</v>
+      </c>
+      <c r="C13">
+        <v>-0.06752305531182182</v>
+      </c>
+      <c r="D13">
+        <v>0.06678983170222973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001233381347759286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001540369783909495</v>
+      </c>
+      <c r="C14">
+        <v>-0.0472383125225536</v>
+      </c>
+      <c r="D14">
+        <v>0.008084651329588003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009684271864046609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005886364145931727</v>
+      </c>
+      <c r="C15">
+        <v>-0.04294319808395621</v>
+      </c>
+      <c r="D15">
+        <v>0.03072872882288842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.00112557586676929</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004963602072579221</v>
+      </c>
+      <c r="C16">
+        <v>-0.06652305589365046</v>
+      </c>
+      <c r="D16">
+        <v>0.04547585087100556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001247485204245355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008800069282925042</v>
+      </c>
+      <c r="C20">
+        <v>-0.06725317210932814</v>
+      </c>
+      <c r="D20">
+        <v>0.04688905697917244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005219599926132472</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009784988129364907</v>
+      </c>
+      <c r="C21">
+        <v>-0.02382225579431791</v>
+      </c>
+      <c r="D21">
+        <v>0.03313877413281439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01778221521723229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006821596828864735</v>
+      </c>
+      <c r="C22">
+        <v>-0.09498413917573556</v>
+      </c>
+      <c r="D22">
+        <v>0.1003307699021679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01809457210704264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006642333919536384</v>
+      </c>
+      <c r="C23">
+        <v>-0.09577277270742159</v>
+      </c>
+      <c r="D23">
+        <v>0.1004670966286437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001800421417657378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005078532298034654</v>
+      </c>
+      <c r="C24">
+        <v>-0.0758886963770998</v>
+      </c>
+      <c r="D24">
+        <v>0.05822978071129738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003798744901027883</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002807888642133705</v>
+      </c>
+      <c r="C25">
+        <v>-0.07831300289344206</v>
+      </c>
+      <c r="D25">
+        <v>0.06568187031871631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005545752155092544</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003479336684297852</v>
+      </c>
+      <c r="C26">
+        <v>-0.0415281510362116</v>
+      </c>
+      <c r="D26">
+        <v>0.02491226867098984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00398031563626389</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001109433723195949</v>
+      </c>
+      <c r="C28">
+        <v>-0.1072342210203038</v>
+      </c>
+      <c r="D28">
+        <v>-0.3184983340451155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009360449629049057</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003011643300506092</v>
+      </c>
+      <c r="C29">
+        <v>-0.04944512162703334</v>
+      </c>
+      <c r="D29">
+        <v>0.004427184305699463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003089419836748156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008931035514535838</v>
+      </c>
+      <c r="C30">
+        <v>-0.1444032459240747</v>
+      </c>
+      <c r="D30">
+        <v>0.101732757140773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001060038328599064</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006115940538405631</v>
+      </c>
+      <c r="C31">
+        <v>-0.04499025458337897</v>
+      </c>
+      <c r="D31">
+        <v>0.03345138569190533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0002186075595278177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003836893571650799</v>
+      </c>
+      <c r="C32">
+        <v>-0.04140394551809182</v>
+      </c>
+      <c r="D32">
+        <v>0.02090953416340512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002877499435098982</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008084944591978237</v>
+      </c>
+      <c r="C33">
+        <v>-0.087044369783363</v>
+      </c>
+      <c r="D33">
+        <v>0.06991938368170379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004177491725249133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003855179828338435</v>
+      </c>
+      <c r="C34">
+        <v>-0.05863454390315062</v>
+      </c>
+      <c r="D34">
+        <v>0.05048816483253308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.00229865355753761</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004841979685358534</v>
+      </c>
+      <c r="C35">
+        <v>-0.0400521272234718</v>
+      </c>
+      <c r="D35">
+        <v>0.0141266781215083</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003997847470647805</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001452376017976204</v>
+      </c>
+      <c r="C36">
+        <v>-0.02430568570568879</v>
+      </c>
+      <c r="D36">
+        <v>0.02152314839220756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002710453313863238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009416031296683688</v>
+      </c>
+      <c r="C38">
+        <v>-0.03357199022598665</v>
+      </c>
+      <c r="D38">
+        <v>0.01887296003854637</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01223205986170861</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009234123481461843</v>
+      </c>
+      <c r="C39">
+        <v>-0.1176484839507935</v>
+      </c>
+      <c r="D39">
+        <v>0.07175935594222496</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009114428841747069</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002122942933571787</v>
+      </c>
+      <c r="C40">
+        <v>-0.08891919418838107</v>
+      </c>
+      <c r="D40">
+        <v>0.01609351084198282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002377059705267457</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.0071884422117598</v>
+      </c>
+      <c r="C41">
+        <v>-0.03818175484223904</v>
+      </c>
+      <c r="D41">
+        <v>0.03491931845687583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003008990423053262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003554108268020424</v>
+      </c>
+      <c r="C43">
+        <v>-0.05192411115682449</v>
+      </c>
+      <c r="D43">
+        <v>0.02377202003984073</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002860828926436029</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003130232846616221</v>
+      </c>
+      <c r="C44">
+        <v>-0.1119521225808685</v>
+      </c>
+      <c r="D44">
+        <v>0.0720646607092825</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001374885281373769</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002288323247762672</v>
+      </c>
+      <c r="C46">
+        <v>-0.03484005811578431</v>
+      </c>
+      <c r="D46">
+        <v>0.02965043578895802</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0002078885899177572</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002683674560672752</v>
+      </c>
+      <c r="C47">
+        <v>-0.03736656145403857</v>
+      </c>
+      <c r="D47">
+        <v>0.0268199761408848</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00375155308205293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006383473007397878</v>
+      </c>
+      <c r="C48">
+        <v>-0.02917546406911726</v>
+      </c>
+      <c r="D48">
+        <v>0.03208389932193141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01324593728070196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01464246948378902</v>
+      </c>
+      <c r="C49">
+        <v>-0.1826787890742537</v>
+      </c>
+      <c r="D49">
+        <v>0.01399762908369085</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006314808838967105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003582398927525008</v>
+      </c>
+      <c r="C50">
+        <v>-0.04435609085618329</v>
+      </c>
+      <c r="D50">
+        <v>0.03614495585861514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007166709279762385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004265198241978587</v>
+      </c>
+      <c r="C51">
+        <v>-0.02506845996772689</v>
+      </c>
+      <c r="D51">
+        <v>0.02043924419443211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006537213138083481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02028443271756875</v>
+      </c>
+      <c r="C53">
+        <v>-0.1684166893996882</v>
+      </c>
+      <c r="D53">
+        <v>0.0396014098019586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001714143367228435</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008593034413613906</v>
+      </c>
+      <c r="C54">
+        <v>-0.05571599848037204</v>
+      </c>
+      <c r="D54">
+        <v>0.0424881193585013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004237220002884277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009259026310159069</v>
+      </c>
+      <c r="C55">
+        <v>-0.1092518580875855</v>
+      </c>
+      <c r="D55">
+        <v>0.04681860364264444</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002940288741718975</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01968845498144366</v>
+      </c>
+      <c r="C56">
+        <v>-0.1749142796483255</v>
+      </c>
+      <c r="D56">
+        <v>0.03602611002689825</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007033220150967075</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01958972153126452</v>
+      </c>
+      <c r="C58">
+        <v>-0.1127472876100254</v>
+      </c>
+      <c r="D58">
+        <v>0.05220647144541125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006813968379151989</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009323561517739849</v>
+      </c>
+      <c r="C59">
+        <v>-0.1623214758151431</v>
+      </c>
+      <c r="D59">
+        <v>-0.3056038811217953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004125645499090761</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02298385578907586</v>
+      </c>
+      <c r="C60">
+        <v>-0.2211872732822509</v>
+      </c>
+      <c r="D60">
+        <v>0.02441466218139549</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01391860605953686</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002016889813254435</v>
+      </c>
+      <c r="C61">
+        <v>-0.09517846034399154</v>
+      </c>
+      <c r="D61">
+        <v>0.05754866332761324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1686012493617653</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1443371342927421</v>
+      </c>
+      <c r="C62">
+        <v>-0.08918255262877103</v>
+      </c>
+      <c r="D62">
+        <v>0.05275944310087973</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001237818711498546</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.00616762036897184</v>
+      </c>
+      <c r="C63">
+        <v>-0.05664307782859426</v>
+      </c>
+      <c r="D63">
+        <v>0.02552549052985211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004897867314883658</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01488754218125189</v>
+      </c>
+      <c r="C64">
+        <v>-0.10450045428668</v>
+      </c>
+      <c r="D64">
+        <v>0.05784811892841511</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00213800724422189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01737809786448056</v>
+      </c>
+      <c r="C65">
+        <v>-0.1207295928385296</v>
+      </c>
+      <c r="D65">
+        <v>0.01808296735432141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00705258611493358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01255133662449101</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596018690635017</v>
+      </c>
+      <c r="D66">
+        <v>0.1125579787421788</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.004038044905185023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01547795394361469</v>
+      </c>
+      <c r="C67">
+        <v>-0.06404925742429901</v>
+      </c>
+      <c r="D67">
+        <v>0.02776607952325326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006243746051050772</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0006260361140093128</v>
+      </c>
+      <c r="C68">
+        <v>-0.08873080700795585</v>
+      </c>
+      <c r="D68">
+        <v>-0.2535762297938805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00278490400027155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006004894358848619</v>
+      </c>
+      <c r="C69">
+        <v>-0.05063923970498782</v>
+      </c>
+      <c r="D69">
+        <v>0.04005695485140303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002579742577651164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001893695990491566</v>
+      </c>
+      <c r="C70">
+        <v>-0.002935496867733346</v>
+      </c>
+      <c r="D70">
+        <v>0.001213376388089278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0002818757771871085</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005813521129376251</v>
+      </c>
+      <c r="C71">
+        <v>-0.09836954297714742</v>
+      </c>
+      <c r="D71">
+        <v>-0.3002407921593017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004606188615773773</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01586186598736857</v>
+      </c>
+      <c r="C72">
+        <v>-0.1521400921558621</v>
+      </c>
+      <c r="D72">
+        <v>0.02283608285896522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01223854390610302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02912853537627955</v>
+      </c>
+      <c r="C73">
+        <v>-0.2760645538814652</v>
+      </c>
+      <c r="D73">
+        <v>0.04437632209008809</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004796533482606506</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001509311793933983</v>
+      </c>
+      <c r="C74">
+        <v>-0.1045461154897536</v>
+      </c>
+      <c r="D74">
+        <v>0.04157160280749857</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002252286704605682</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01071651696288437</v>
+      </c>
+      <c r="C75">
+        <v>-0.1294783500384042</v>
+      </c>
+      <c r="D75">
+        <v>0.02392099319565397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009374332260209133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02143739681175222</v>
+      </c>
+      <c r="C76">
+        <v>-0.1501816007732596</v>
+      </c>
+      <c r="D76">
+        <v>0.06724015278877288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0008121026507516558</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02343903392104979</v>
+      </c>
+      <c r="C77">
+        <v>-0.1324185881058975</v>
+      </c>
+      <c r="D77">
+        <v>0.04156905095463458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009846313743156368</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01439493875825103</v>
+      </c>
+      <c r="C78">
+        <v>-0.09515202417153898</v>
+      </c>
+      <c r="D78">
+        <v>0.06569073505907586</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02374069848371823</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03726886523467286</v>
+      </c>
+      <c r="C79">
+        <v>-0.1561412582082624</v>
+      </c>
+      <c r="D79">
+        <v>0.03718993501730715</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004487312387860997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.0105483846475328</v>
+      </c>
+      <c r="C80">
+        <v>-0.04311696351836338</v>
+      </c>
+      <c r="D80">
+        <v>0.02842452532982408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0009807061924397109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01485263709635024</v>
+      </c>
+      <c r="C81">
+        <v>-0.126542039983095</v>
+      </c>
+      <c r="D81">
+        <v>0.04563606588127556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005930515798622015</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01962849164284036</v>
+      </c>
+      <c r="C82">
+        <v>-0.1441477066305945</v>
+      </c>
+      <c r="D82">
+        <v>0.04433931010685176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008996058591333298</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009979633888353212</v>
+      </c>
+      <c r="C83">
+        <v>-0.05707630313629778</v>
+      </c>
+      <c r="D83">
+        <v>0.05607226791444401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01347875603801174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01168233569225056</v>
+      </c>
+      <c r="C84">
+        <v>-0.03788809345367428</v>
+      </c>
+      <c r="D84">
+        <v>-0.007916186108052425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01467711380226092</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02793449320464193</v>
+      </c>
+      <c r="C85">
+        <v>-0.1290934204546619</v>
+      </c>
+      <c r="D85">
+        <v>0.04540191738523487</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0007428779092776598</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005427026020869119</v>
+      </c>
+      <c r="C86">
+        <v>-0.05029439120340911</v>
+      </c>
+      <c r="D86">
+        <v>0.02339854665599395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004308053983097347</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01021678864589635</v>
+      </c>
+      <c r="C87">
+        <v>-0.1327174927506819</v>
+      </c>
+      <c r="D87">
+        <v>0.06401371274684246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01287851409525878</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003047402978018995</v>
+      </c>
+      <c r="C88">
+        <v>-0.06742506714679833</v>
+      </c>
+      <c r="D88">
+        <v>0.009062203942626582</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01435981890131583</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001872925978365429</v>
+      </c>
+      <c r="C89">
+        <v>-0.1459439461226087</v>
+      </c>
+      <c r="D89">
+        <v>-0.3454723224202439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002314134680721619</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.00663805369739669</v>
+      </c>
+      <c r="C90">
+        <v>-0.1228017734493873</v>
+      </c>
+      <c r="D90">
+        <v>-0.3246036257387424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001353201165470541</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01028964217170453</v>
+      </c>
+      <c r="C91">
+        <v>-0.1034231206205096</v>
+      </c>
+      <c r="D91">
+        <v>0.0243194731030194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008482957563137342</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0004068595192705365</v>
+      </c>
+      <c r="C92">
+        <v>-0.1356532399291309</v>
+      </c>
+      <c r="D92">
+        <v>-0.334265219918825</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0002932687578504061</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004592709583620996</v>
+      </c>
+      <c r="C93">
+        <v>-0.1055521247239226</v>
+      </c>
+      <c r="D93">
+        <v>-0.3126771213088758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004255025446343583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02222759490796729</v>
+      </c>
+      <c r="C94">
+        <v>-0.1509099091442639</v>
+      </c>
+      <c r="D94">
+        <v>0.04931959730154707</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005318125378828333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01610252473348778</v>
+      </c>
+      <c r="C95">
+        <v>-0.1269081600343466</v>
+      </c>
+      <c r="D95">
+        <v>0.06432900219306498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001821594197992088</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03501413428251385</v>
+      </c>
+      <c r="C97">
+        <v>-0.2012816509967104</v>
+      </c>
+      <c r="D97">
+        <v>-0.0002596400165122748</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004083351780722103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03607884304441446</v>
+      </c>
+      <c r="C98">
+        <v>-0.2460415650469018</v>
+      </c>
+      <c r="D98">
+        <v>0.05067113170868487</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9838002955059735</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9825852315433042</v>
+      </c>
+      <c r="C99">
+        <v>0.1127493227653155</v>
+      </c>
+      <c r="D99">
+        <v>-0.02858027624235657</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008442614502058349</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003057118044470624</v>
+      </c>
+      <c r="C101">
+        <v>-0.04957263038116676</v>
+      </c>
+      <c r="D101">
+        <v>0.00459329993845576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
